--- a/gifts_fixed.xlsx
+++ b/gifts_fixed.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_newyear, occasion_noreason, occasion_8march_23feb</t>
+          <t>occasion_birthday, occasion_newyear, occasion_noreason, occasion_8march_23feb, occasion_valentine</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J89" s="2" t="inlineStr">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J94" s="2" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J100" s="2" t="inlineStr">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J101" s="2" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J104" s="2" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_wedding, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_wedding, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J105" s="2" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J106" s="2" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J110" s="2" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J111" s="2" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J112" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J113" s="2" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J119" s="2" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J122" s="2" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="I130" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J130" s="2" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J131" s="2" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="I133" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J133" s="2" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J136" s="2" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="I138" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J138" s="2" t="inlineStr">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="I140" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J140" s="2" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J142" s="2" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J145" s="2" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J151" s="2" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J152" s="2" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J153" s="2" t="inlineStr">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J155" s="2" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J157" s="2" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I162" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J162" s="2" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="I163" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J163" s="2" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J164" s="2" t="inlineStr">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J165" s="2" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J166" s="2" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J167" s="2" t="inlineStr">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="I169" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J169" s="2" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I172" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J172" s="2" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="I173" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J173" s="2" t="inlineStr">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J175" s="2" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
-          <t>gender_female</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G177" s="2" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J178" s="2" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="I181" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J181" s="2" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="I182" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J182" s="2" t="inlineStr">
@@ -10848,7 +10848,7 @@
       </c>
       <c r="I189" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J189" s="2" t="inlineStr">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="I191" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J191" s="2" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="I194" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J194" s="2" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="I195" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J195" s="2" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="I199" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J199" s="2" t="inlineStr">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="I200" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J200" s="2" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="I201" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J201" s="2" t="inlineStr">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="I203" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J203" s="2" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="I206" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J206" s="2" t="inlineStr">
@@ -12168,7 +12168,7 @@
       </c>
       <c r="I213" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J213" s="2" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="I214" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J214" s="2" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="I215" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J215" s="2" t="inlineStr">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="I216" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J216" s="2" t="inlineStr">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="I217" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J217" s="2" t="inlineStr">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="I218" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J218" s="2" t="inlineStr">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="I219" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J219" s="2" t="inlineStr">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I220" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J220" s="2" t="inlineStr">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="I223" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J223" s="2" t="inlineStr">
@@ -12773,7 +12773,7 @@
       </c>
       <c r="I224" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J224" s="2" t="inlineStr">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="I225" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J225" s="2" t="inlineStr">
@@ -12993,7 +12993,7 @@
       </c>
       <c r="I228" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J228" s="2" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="F230" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G230" s="2" t="inlineStr">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G231" s="2" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G234" s="2" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G235" s="2" t="inlineStr">
@@ -13418,7 +13418,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G236" s="2" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G237" s="2" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="I240" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J240" s="2" t="inlineStr">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="I242" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J242" s="2" t="inlineStr">
@@ -13873,7 +13873,7 @@
       </c>
       <c r="I244" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J244" s="2" t="inlineStr">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="I246" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_wedding, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_wedding, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J246" s="2" t="inlineStr">
@@ -14078,7 +14078,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G248" s="2" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G250" s="2" t="inlineStr">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="I253" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J253" s="2" t="inlineStr">
@@ -14478,7 +14478,7 @@
       </c>
       <c r="I255" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J255" s="2" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="I259" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J259" s="2" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="I261" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J261" s="2" t="inlineStr">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G263" s="2" t="inlineStr">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="I265" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J265" s="2" t="inlineStr">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="I267" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_wedding, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_wedding, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J267" s="2" t="inlineStr">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="I269" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J269" s="2" t="inlineStr">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="I274" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_wedding, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J274" s="2" t="inlineStr">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G275" s="2" t="inlineStr">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="I276" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J276" s="2" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="I277" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J277" s="2" t="inlineStr">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="I278" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J278" s="2" t="inlineStr">
@@ -15908,7 +15908,7 @@
       </c>
       <c r="I281" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J281" s="2" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="I282" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J282" s="2" t="inlineStr">
@@ -16018,7 +16018,7 @@
       </c>
       <c r="I283" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J283" s="2" t="inlineStr">
@@ -16238,7 +16238,7 @@
       </c>
       <c r="I287" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J287" s="2" t="inlineStr">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="I288" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J288" s="2" t="inlineStr">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="I289" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J289" s="2" t="inlineStr">
@@ -16458,7 +16458,7 @@
       </c>
       <c r="I291" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J291" s="2" t="inlineStr">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="I292" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J292" s="2" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="I294" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J294" s="2" t="inlineStr">
@@ -16678,7 +16678,7 @@
       </c>
       <c r="I295" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J295" s="2" t="inlineStr">
@@ -16733,7 +16733,7 @@
       </c>
       <c r="I296" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J296" s="2" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="I297" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J297" s="2" t="inlineStr">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="I300" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J300" s="2" t="inlineStr">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="I301" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J301" s="2" t="inlineStr">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>gender_male</t>
+          <t>gender_male, gender_female</t>
         </is>
       </c>
       <c r="G308" s="2" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="I310" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J310" s="2" t="inlineStr">
@@ -17778,7 +17778,7 @@
       </c>
       <c r="I315" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J315" s="2" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I316" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J316" s="2" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="I318" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J318" s="2" t="inlineStr">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="I321" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_newyear, occasion_noreason, occasion_valentine</t>
         </is>
       </c>
       <c r="J321" s="2" t="inlineStr">
@@ -18163,7 +18163,7 @@
       </c>
       <c r="I322" s="2" t="inlineStr">
         <is>
-          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear</t>
+          <t>occasion_birthday, occasion_8march_23feb, occasion_noreason, occasion_newyear, occasion_valentine</t>
         </is>
       </c>
       <c r="J322" s="2" t="inlineStr">
